--- a/InterfaceAutomatedTest/InterfaceFrame3/test_data/userCase.xlsx
+++ b/InterfaceAutomatedTest/InterfaceFrame3/test_data/userCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>case_name</t>
   </si>
@@ -28,10 +28,7 @@
     <t>query</t>
   </si>
   <si>
-    <t>yuqi</t>
-  </si>
-  <si>
-    <t>case0</t>
+    <t>case1</t>
   </si>
   <si>
     <t>http://v.juhe.cn/laohuangli/d</t>
@@ -43,10 +40,7 @@
     <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-06-08</t>
   </si>
   <si>
-    <t>{"error_code":0}</t>
-  </si>
-  <si>
-    <t>case1</t>
+    <t>case2</t>
   </si>
   <si>
     <t>post</t>
@@ -55,13 +49,16 @@
     <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-06-07</t>
   </si>
   <si>
-    <t>case2</t>
-  </si>
-  <si>
     <t>case3</t>
   </si>
   <si>
+    <t>case4</t>
+  </si>
+  <si>
     <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-456-07</t>
+  </si>
+  <si>
+    <t>case5</t>
   </si>
   <si>
     <t>key=b53b3ef09b2d4180a2af64ec761760e7P&amp;date=2018-06-09</t>
@@ -103,6 +100,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,7 +115,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,59 +123,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,9 +138,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,6 +182,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -206,25 +204,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,31 +236,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,151 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,41 +430,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +460,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -499,19 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,16 +545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,121 +563,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1029,22 +1026,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="3" width="7.125" customWidth="1"/>
     <col min="4" max="4" width="61.375" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,78 +1053,72 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" ht="22" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="5" ht="22" customHeight="1" spans="1:4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="22" customHeight="1" spans="1:4">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAutomatedTest/InterfaceFrame3/test_data/userCase.xlsx
+++ b/InterfaceAutomatedTest/InterfaceFrame3/test_data/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21825" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>case_name</t>
   </si>
@@ -28,40 +28,34 @@
     <t>query</t>
   </si>
   <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>case0</t>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/laohuangli/d</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-06-08</t>
+  </si>
+  <si>
+    <t>{'key':'b53b3ef09b2d4180a2af64ec761760e7','date':'2018-06-06'}</t>
+  </si>
+  <si>
     <t>case1</t>
   </si>
   <si>
-    <t>http://v.juhe.cn/laohuangli/d</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-06-08</t>
+    <t>{'key':'b53b3ef09b2d4180a2af64ec761760e7','date':'2018-06-07'}</t>
   </si>
   <si>
     <t>case2</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-06-07</t>
-  </si>
-  <si>
-    <t>case3</t>
-  </si>
-  <si>
-    <t>case4</t>
-  </si>
-  <si>
-    <t>key=b53b3ef09b2d4180a2af64ec761760e7&amp;date=2018-456-07</t>
-  </si>
-  <si>
-    <t>case5</t>
-  </si>
-  <si>
-    <t>key=b53b3ef09b2d4180a2af64ec761760e7P&amp;date=2018-06-09</t>
+    <t>{'key':'b53b3ef09b2d4180a2af64ec761760e7P','date':'2018-06-07'}</t>
   </si>
 </sst>
 </file>
@@ -69,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +85,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -99,15 +122,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,15 +154,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,14 +192,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,68 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,19 +230,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,19 +296,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,49 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,84 +411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,17 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,9 +441,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -491,24 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,16 +539,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,115 +557,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,21 +1020,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="61.375" customWidth="1"/>
+    <col min="1" max="1" width="10.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="64.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="7.12962962962963" customWidth="1"/>
+    <col min="4" max="4" width="26.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="73.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1053,81 +1048,66 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:4">
+    <row r="2" ht="22" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="22" customHeight="1" spans="1:3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="22" customHeight="1" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="22" customHeight="1" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://v.juhe.cn/laohuangli/d"/>
-    <hyperlink ref="B2" r:id="rId1" display="http://v.juhe.cn/laohuangli/d"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://v.juhe.cn/laohuangli/d"/>
-    <hyperlink ref="B5" r:id="rId1" display="http://v.juhe.cn/laohuangli/d"/>
-    <hyperlink ref="B6" r:id="rId1" display="http://v.juhe.cn/laohuangli/d"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://v.juhe.cn/laohuangli/d" tooltip="http://v.juhe.cn/laohuangli/d"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://v.juhe.cn/laohuangli/d" tooltip="http://v.juhe.cn/laohuangli/d"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://v.juhe.cn/laohuangli/d" tooltip="http://v.juhe.cn/laohuangli/d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
